--- a/ОписаниеИзменений/Описание изменений по форме/0002_Доработки документов для отражения в них информации о распределении.xlsx
+++ b/ОписаниеИзменений/Описание изменений по форме/0002_Доработки документов для отражения в них информации о распределении.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\IGS_BSO\ОписаниеИзменений\Описание изменений по форме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94A66A0-50FD-4763-AC28-D8408510E59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3580F16-F8EA-47EE-9587-E39856538F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Дата изменения</t>
   </si>
@@ -81,22 +81,6 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>игсДатаНачала - новый реквизит</t>
-  </si>
-  <si>
-    <t>игсОбъектРаспределения - новый реквизит</t>
-  </si>
-  <si>
-    <t>игсДатаОкончания - новый реквизит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	ОбработкаПроведения() - добавлено движение по регистру "игсЗатратыКРаспределениюПоПроизводственнойПрограмме"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОбработкаОповещения() - добавлен обработчик события для выбора ОР
-					</t>
-  </si>
-  <si>
     <t>Подсистема:  игсМодифицированныеОбъектыМетаданных</t>
   </si>
   <si>
@@ -113,9 +97,6 @@
   </si>
   <si>
     <t>Документ ТребованиеНакладная</t>
-  </si>
-  <si>
-    <t>Значение табличной части "Материалы"</t>
   </si>
   <si>
     <t>ФормаДокумента</t>
@@ -140,54 +121,6 @@
   </si>
   <si>
     <t>игсПроектЗакрыт() - новая функция, возвращаемое значение - булево. Возвращает Истина, если в переданной номенклатурной группе флаг игсПроектЗакрыт - Истина</t>
-  </si>
-  <si>
-    <t>включены объекты: Документ.ТребованиеНакладная</t>
-  </si>
-  <si>
-    <t>включены объекты: Справочник.игсБуровыеУстановки, РегистрНакопления.игсЗатратыКРаспределениюПоПроизводственнойПрограмме, ОбщийМодуль.РедактированиеСчетаЗатрат</t>
-  </si>
-  <si>
-    <t>Документ ПринятиеКУчетуОС</t>
-  </si>
-  <si>
-    <t>ОбработкаОповещения() - добавлена обработка событий "игсОкончаниеВыбораОбъектаРаспределения"</t>
-  </si>
-  <si>
-    <t>игсОбъектРаспределенияНачалоВыбора() - вызов нового кастомного обработчика событий</t>
-  </si>
-  <si>
-    <t>игсНастройкаФормы() - добавлена установка действия для игсОбъектРаспределенияНачалоВыбора</t>
-  </si>
-  <si>
-    <t>Документ ПеремещениеОС</t>
-  </si>
-  <si>
-    <t>игсВыбратьОбъектРаспределенияНаСервере() - добавлено альтернативное условие при синхронизации с ERP</t>
-  </si>
-  <si>
-    <t>ОбработкаВыбора() - добавлена проверка и вызов кастомного обработчика событий</t>
-  </si>
-  <si>
-    <t>Документ игсПрочиеЗатратыКРаспределению</t>
-  </si>
-  <si>
-    <t>игсНастроитьФорму() - добавлена установка действия для ПроводкиОбъектРаспределенияНачалоВыбора</t>
-  </si>
-  <si>
-    <t>ПроводкиОбъектРаспределенияНачалоВыбора() - вызов нового кастомного обработчика событий</t>
-  </si>
-  <si>
-    <t>Документ Авансовый отчет</t>
-  </si>
-  <si>
-    <t>ОбработкаПроведения() - логика заполнения движений по регистру игсЗатратыКРаспределениюПоПроизводственнойПрограмме доработана</t>
-  </si>
-  <si>
-    <t>Документ ПередачаМатериаловВЭксплуатацию</t>
-  </si>
-  <si>
-    <t>ОбработкаПроверкиЗаполнения() - добавлена проверка</t>
   </si>
   <si>
     <t>Общий модуль РедактированиеСчетаЗатрат</t>
@@ -244,7 +177,41 @@
     <t>Роль игсИзменениеЗатратыКРаспределениюПоПроизводственнойПрограмме</t>
   </si>
   <si>
-    <t>новая роль с правами чтения и изменения регистра накопления игсЗатратыКРаспределениюПоПроизводственнойПрограмме</t>
+    <t>ОбработкаПроведения() - процедура изменена, добавлено движение по регистру "игсЗатратыКРаспределениюПоПроизводственнойПрограмме"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОбработкаОповещения() - процедура изменена, добавлен обработчик события для выбора ОР
+					</t>
+  </si>
+  <si>
+    <t>Общий модуль игсНазначениеОбъектаРаспределения</t>
+  </si>
+  <si>
+    <t>Создан новый модуль. Созданы 2 процедуры для вывода форма с выбором объекта распределения</t>
+  </si>
+  <si>
+    <t>игсОбъектРаспределения - новый реквизит табличной части "Материалы"</t>
+  </si>
+  <si>
+    <t>игсДатаНачала - новый реквизит табличной части "Материалы"</t>
+  </si>
+  <si>
+    <t>игсДатаОкончания - новый реквизит табличной части "Материалы"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значение </t>
+  </si>
+  <si>
+    <t>Подсистема:  игсНовыеОбъектыМетаданных</t>
+  </si>
+  <si>
+    <t>Включены объекты: Документ.ТребованиеНакладная, ОбщийМодуль.РедактированиеСчетаЗатрат</t>
+  </si>
+  <si>
+    <t>новая роль с правами чтения и изменения регистра накопления Регистр накопления.игсЗатратыКРаспределениюПоПроизводственнойПрограмме</t>
+  </si>
+  <si>
+    <t>Включены объекты: Справочник.игсБуровыеУстановки, РегистраНакопления.игсЗатратыКРаспределениюПоПроизводственнойПрограмме</t>
   </si>
 </sst>
 </file>
@@ -254,12 +221,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -346,95 +321,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,20 +758,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21" style="8" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="112" style="8" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" style="8" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" style="8" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
@@ -765,10 +809,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="16">
         <v>45909</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -797,10 +841,10 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -829,10 +873,10 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>24</v>
+      <c r="B4" s="20" t="s">
+        <v>19</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -861,10 +905,10 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>25</v>
+      <c r="B5" s="20" t="s">
+        <v>20</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -893,10 +937,10 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -925,10 +969,10 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -957,8 +1001,8 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -987,10 +1031,10 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1019,10 +1063,10 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>26</v>
+      <c r="B10" s="23" t="s">
+        <v>21</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1051,10 +1095,10 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>27</v>
+      <c r="B11" s="22" t="s">
+        <v>22</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1108,11 +1152,11 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1171,15 +1215,15 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>28</v>
+    <row r="15" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>43</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>29</v>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>19</v>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1205,13 +1249,15 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="7" t="s">
-        <v>29</v>
+    <row r="16" spans="1:26" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>45</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>18</v>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1237,13 +1283,15 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
+    <row r="17" spans="1:26" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>47</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1269,16 +1317,18 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="7" t="s">
-        <v>31</v>
+    <row r="18" spans="1:26" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>49</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>21</v>
+      <c r="B18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1301,13 +1351,15 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
+    <row r="19" spans="1:26" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1333,13 +1385,15 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+    <row r="20" spans="1:26" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1365,13 +1419,13 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="7" t="s">
-        <v>30</v>
+    <row r="21" spans="1:26" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>52</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>33</v>
+      <c r="B21" s="12"/>
+      <c r="C21" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1397,12 +1451,14 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="7" t="s">
-        <v>30</v>
+    <row r="22" spans="1:26" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>32</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="1"/>
@@ -1429,12 +1485,12 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="7" t="s">
-        <v>30</v>
+    <row r="23" spans="1:26" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="1"/>
@@ -1461,12 +1517,12 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="7" t="s">
-        <v>30</v>
+    <row r="24" spans="1:26" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="11" t="s">
+        <v>33</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1"/>
@@ -1493,12 +1549,12 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="7" t="s">
-        <v>30</v>
+    <row r="25" spans="1:26" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="11" t="s">
+        <v>33</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="1"/>
@@ -1525,14 +1581,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>23</v>
+    <row r="26" spans="1:26" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="11" t="s">
+        <v>33</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="1"/>
@@ -1559,15 +1613,15 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>23</v>
+    <row r="27" spans="1:26" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>39</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>39</v>
+      <c r="C27" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1593,15 +1647,15 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>40</v>
+    <row r="28" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>23</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>31</v>
+      <c r="B28" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>41</v>
+      <c r="C28" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1627,13 +1681,13 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="11" t="s">
-        <v>31</v>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="7" t="s">
+        <v>57</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
+      <c r="C29" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1659,13 +1713,13 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="11" t="s">
-        <v>31</v>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="7" t="s">
+        <v>57</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>37</v>
+      <c r="C30" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1692,15 +1746,15 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="11" t="s">
-        <v>31</v>
+      <c r="A31" s="27"/>
+      <c r="B31" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>43</v>
+      <c r="C31" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1723,15 +1777,13 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>44</v>
+    <row r="32" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>45</v>
+      <c r="C32" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1758,12 +1810,12 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="11" t="s">
-        <v>31</v>
+      <c r="A33" s="27"/>
+      <c r="B33" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>46</v>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1789,13 +1841,13 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="11" t="s">
-        <v>31</v>
+    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>41</v>
+      <c r="C34" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1821,20 +1873,15 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>47</v>
+    <row r="35" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>48</v>
+      <c r="C35" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1855,18 +1902,15 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="11" t="s">
-        <v>31</v>
+    <row r="36" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>49</v>
+      <c r="C36" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1887,13 +1931,13 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="11" t="s">
-        <v>31</v>
+    <row r="37" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="7" t="s">
+        <v>24</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>37</v>
+      <c r="C37" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1920,12 +1964,12 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="35" t="s">
         <v>31</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1951,15 +1995,15 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>50</v>
+    <row r="39" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>51</v>
+      <c r="C39" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1985,16 +2029,10 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>51</v>
-      </c>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2019,16 +2057,10 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>53</v>
-      </c>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2053,16 +2085,10 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>56</v>
-      </c>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2087,14 +2113,10 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>57</v>
-      </c>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2119,14 +2141,10 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>58</v>
-      </c>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2151,14 +2169,10 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>59</v>
-      </c>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2183,14 +2197,10 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>60</v>
-      </c>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2215,16 +2225,10 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>62</v>
-      </c>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2249,16 +2253,10 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>64</v>
-      </c>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2283,18 +2281,12 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>66</v>
-      </c>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2317,16 +2309,10 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>68</v>
-      </c>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2351,16 +2337,10 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>70</v>
-      </c>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="30"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2385,16 +2365,10 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>72</v>
-      </c>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2420,9 +2394,6 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2448,9 +2419,6 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2476,9 +2444,6 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2504,9 +2469,6 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2532,9 +2494,6 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2559,10 +2518,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+    <row r="58" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2587,10 +2543,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+    <row r="59" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2616,9 +2569,6 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2644,9 +2594,6 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2672,11 +2619,8 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -2700,9 +2644,6 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2728,9 +2669,6 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2756,9 +2694,6 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2784,9 +2719,6 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -28935,24 +28867,388 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
+    <row r="1000" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="1"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="1"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="1"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="1"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+      <c r="I1006" s="1"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+      <c r="Z1006" s="1"/>
+    </row>
+    <row r="1007" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="1"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="1"/>
+      <c r="I1007" s="1"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="1"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+      <c r="O1007" s="1"/>
+      <c r="P1007" s="1"/>
+      <c r="Q1007" s="1"/>
+      <c r="R1007" s="1"/>
+      <c r="S1007" s="1"/>
+      <c r="T1007" s="1"/>
+      <c r="U1007" s="1"/>
+      <c r="V1007" s="1"/>
+      <c r="W1007" s="1"/>
+      <c r="X1007" s="1"/>
+      <c r="Y1007" s="1"/>
+      <c r="Z1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="1"/>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="1"/>
+      <c r="H1008" s="1"/>
+      <c r="I1008" s="1"/>
+      <c r="J1008" s="1"/>
+      <c r="K1008" s="1"/>
+      <c r="L1008" s="1"/>
+      <c r="M1008" s="1"/>
+      <c r="N1008" s="1"/>
+      <c r="O1008" s="1"/>
+      <c r="P1008" s="1"/>
+      <c r="Q1008" s="1"/>
+      <c r="R1008" s="1"/>
+      <c r="S1008" s="1"/>
+      <c r="T1008" s="1"/>
+      <c r="U1008" s="1"/>
+      <c r="V1008" s="1"/>
+      <c r="W1008" s="1"/>
+      <c r="X1008" s="1"/>
+      <c r="Y1008" s="1"/>
+      <c r="Z1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="1"/>
+      <c r="C1009" s="1"/>
+      <c r="D1009" s="1"/>
+      <c r="E1009" s="1"/>
+      <c r="F1009" s="1"/>
+      <c r="G1009" s="1"/>
+      <c r="H1009" s="1"/>
+      <c r="I1009" s="1"/>
+      <c r="J1009" s="1"/>
+      <c r="K1009" s="1"/>
+      <c r="L1009" s="1"/>
+      <c r="M1009" s="1"/>
+      <c r="N1009" s="1"/>
+      <c r="O1009" s="1"/>
+      <c r="P1009" s="1"/>
+      <c r="Q1009" s="1"/>
+      <c r="R1009" s="1"/>
+      <c r="S1009" s="1"/>
+      <c r="T1009" s="1"/>
+      <c r="U1009" s="1"/>
+      <c r="V1009" s="1"/>
+      <c r="W1009" s="1"/>
+      <c r="X1009" s="1"/>
+      <c r="Y1009" s="1"/>
+      <c r="Z1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="1"/>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="1"/>
+      <c r="H1010" s="1"/>
+      <c r="I1010" s="1"/>
+      <c r="J1010" s="1"/>
+      <c r="K1010" s="1"/>
+      <c r="L1010" s="1"/>
+      <c r="M1010" s="1"/>
+      <c r="N1010" s="1"/>
+      <c r="O1010" s="1"/>
+      <c r="P1010" s="1"/>
+      <c r="Q1010" s="1"/>
+      <c r="R1010" s="1"/>
+      <c r="S1010" s="1"/>
+      <c r="T1010" s="1"/>
+      <c r="U1010" s="1"/>
+      <c r="V1010" s="1"/>
+      <c r="W1010" s="1"/>
+      <c r="X1010" s="1"/>
+      <c r="Y1010" s="1"/>
+      <c r="Z1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="1"/>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="1"/>
+      <c r="H1011" s="1"/>
+      <c r="I1011" s="1"/>
+      <c r="J1011" s="1"/>
+      <c r="K1011" s="1"/>
+      <c r="L1011" s="1"/>
+      <c r="M1011" s="1"/>
+      <c r="N1011" s="1"/>
+      <c r="O1011" s="1"/>
+      <c r="P1011" s="1"/>
+      <c r="Q1011" s="1"/>
+      <c r="R1011" s="1"/>
+      <c r="S1011" s="1"/>
+      <c r="T1011" s="1"/>
+      <c r="U1011" s="1"/>
+      <c r="V1011" s="1"/>
+      <c r="W1011" s="1"/>
+      <c r="X1011" s="1"/>
+      <c r="Y1011" s="1"/>
+      <c r="Z1011" s="1"/>
+    </row>
+    <row r="1012" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="1"/>
+      <c r="D1012" s="1"/>
+      <c r="E1012" s="1"/>
+      <c r="F1012" s="1"/>
+      <c r="G1012" s="1"/>
+      <c r="H1012" s="1"/>
+      <c r="I1012" s="1"/>
+      <c r="J1012" s="1"/>
+      <c r="K1012" s="1"/>
+      <c r="L1012" s="1"/>
+      <c r="M1012" s="1"/>
+      <c r="N1012" s="1"/>
+      <c r="O1012" s="1"/>
+      <c r="P1012" s="1"/>
+      <c r="Q1012" s="1"/>
+      <c r="R1012" s="1"/>
+      <c r="S1012" s="1"/>
+      <c r="T1012" s="1"/>
+      <c r="U1012" s="1"/>
+      <c r="V1012" s="1"/>
+      <c r="W1012" s="1"/>
+      <c r="X1012" s="1"/>
+      <c r="Y1012" s="1"/>
+      <c r="Z1012" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C66">
+    <sortCondition ref="B28:B38"/>
+  </sortState>
+  <mergeCells count="13">
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
